--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxadr-Cxadr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxadr-Cxadr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Cxadr</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.327670666666666</v>
+        <v>1.829863333333333</v>
       </c>
       <c r="H2">
-        <v>12.983012</v>
+        <v>5.48959</v>
       </c>
       <c r="I2">
-        <v>0.5263517071721222</v>
+        <v>0.2920835508604924</v>
       </c>
       <c r="J2">
-        <v>0.5759633413845981</v>
+        <v>0.3433511372213675</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.327670666666666</v>
+        <v>1.829863333333333</v>
       </c>
       <c r="N2">
-        <v>12.983012</v>
+        <v>5.48959</v>
       </c>
       <c r="O2">
-        <v>0.5263517071721222</v>
+        <v>0.2920835508604924</v>
       </c>
       <c r="P2">
-        <v>0.5759633413845981</v>
+        <v>0.3433511372213675</v>
       </c>
       <c r="Q2">
-        <v>18.72873339912711</v>
+        <v>3.348399818677777</v>
       </c>
       <c r="R2">
-        <v>168.558600592144</v>
+        <v>30.1355983681</v>
       </c>
       <c r="S2">
-        <v>0.2770461196430075</v>
+        <v>0.08531280068327386</v>
       </c>
       <c r="T2">
-        <v>0.3317337706189111</v>
+        <v>0.1178900034312063</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.327670666666666</v>
+        <v>1.829863333333333</v>
       </c>
       <c r="H3">
-        <v>12.983012</v>
+        <v>5.48959</v>
       </c>
       <c r="I3">
-        <v>0.5263517071721222</v>
+        <v>0.2920835508604924</v>
       </c>
       <c r="J3">
-        <v>0.5759633413845981</v>
+        <v>0.3433511372213675</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>3.689804</v>
       </c>
       <c r="O3">
-        <v>0.1495904520869676</v>
+        <v>0.1963226860838876</v>
       </c>
       <c r="P3">
-        <v>0.1636902007711505</v>
+        <v>0.2307819708801478</v>
       </c>
       <c r="Q3">
-        <v>5.322752178849777</v>
+        <v>2.250612348928889</v>
       </c>
       <c r="R3">
-        <v>47.904769609648</v>
+        <v>20.25551114036</v>
       </c>
       <c r="S3">
-        <v>0.07873718983262494</v>
+        <v>0.05734262726585166</v>
       </c>
       <c r="T3">
-        <v>0.09427955498806756</v>
+        <v>0.07923925215188729</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +643,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.327670666666666</v>
+        <v>1.829863333333333</v>
       </c>
       <c r="H4">
-        <v>12.983012</v>
+        <v>5.48959</v>
       </c>
       <c r="I4">
-        <v>0.5263517071721222</v>
+        <v>0.2920835508604924</v>
       </c>
       <c r="J4">
-        <v>0.5759633413845981</v>
+        <v>0.3433511372213675</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04034066666666667</v>
+        <v>0.3987446666666667</v>
       </c>
       <c r="N4">
-        <v>0.121022</v>
+        <v>1.196234</v>
       </c>
       <c r="O4">
-        <v>0.004906422046392978</v>
+        <v>0.06364779052352731</v>
       </c>
       <c r="P4">
-        <v>0.005368880156703764</v>
+        <v>0.07481948638839428</v>
       </c>
       <c r="Q4">
-        <v>0.1745811198071111</v>
+        <v>0.7296482448955556</v>
       </c>
       <c r="R4">
-        <v>1.571230078264</v>
+        <v>6.56683420406</v>
       </c>
       <c r="S4">
-        <v>0.002582503620225881</v>
+        <v>0.01859047266053666</v>
       </c>
       <c r="T4">
-        <v>0.003092278154548565</v>
+        <v>0.0256893557377738</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +705,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -723,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.327670666666666</v>
+        <v>1.829863333333333</v>
       </c>
       <c r="H5">
-        <v>12.983012</v>
+        <v>5.48959</v>
       </c>
       <c r="I5">
-        <v>0.5263517071721222</v>
+        <v>0.2920835508604924</v>
       </c>
       <c r="J5">
-        <v>0.5759633413845981</v>
+        <v>0.3433511372213675</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,43 +738,43 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.1246535</v>
+        <v>2.80632</v>
       </c>
       <c r="N5">
-        <v>4.249307</v>
+        <v>5.61264</v>
       </c>
       <c r="O5">
-        <v>0.2584103743124225</v>
+        <v>0.4479459725320928</v>
       </c>
       <c r="P5">
-        <v>0.1885113453094677</v>
+        <v>0.3510474055100902</v>
       </c>
       <c r="Q5">
-        <v>9.194800628780666</v>
+        <v>5.135182069599999</v>
       </c>
       <c r="R5">
-        <v>55.16880377268399</v>
+        <v>30.8110924176</v>
       </c>
       <c r="S5">
-        <v>0.1360147416703307</v>
+        <v>0.1308376502508303</v>
       </c>
       <c r="T5">
-        <v>0.1085756243333468</v>
+        <v>0.1205325259005</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -785,46 +782,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.327670666666666</v>
+        <v>1.229934666666667</v>
       </c>
       <c r="H6">
-        <v>12.983012</v>
+        <v>3.689804</v>
       </c>
       <c r="I6">
-        <v>0.5263517071721222</v>
+        <v>0.1963226860838876</v>
       </c>
       <c r="J6">
-        <v>0.5759633413845981</v>
+        <v>0.2307819708801478</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4994136666666666</v>
+        <v>1.829863333333333</v>
       </c>
       <c r="N6">
-        <v>1.498241</v>
+        <v>5.48959</v>
       </c>
       <c r="O6">
-        <v>0.06074104438209466</v>
+        <v>0.2920835508604924</v>
       </c>
       <c r="P6">
-        <v>0.06646623237808004</v>
+        <v>0.3433511372213675</v>
       </c>
       <c r="Q6">
-        <v>2.161297875765777</v>
+        <v>2.250612348928889</v>
       </c>
       <c r="R6">
-        <v>19.451680881892</v>
+        <v>20.25551114036</v>
       </c>
       <c r="S6">
-        <v>0.03197115240593316</v>
+        <v>0.05734262726585166</v>
       </c>
       <c r="T6">
-        <v>0.03828211328972415</v>
+        <v>0.07923925215188729</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +850,10 @@
         <v>3.689804</v>
       </c>
       <c r="I7">
-        <v>0.1495904520869676</v>
+        <v>0.1963226860838876</v>
       </c>
       <c r="J7">
-        <v>0.1636902007711505</v>
+        <v>0.2307819708801478</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.327670666666666</v>
+        <v>1.229934666666667</v>
       </c>
       <c r="N7">
-        <v>12.983012</v>
+        <v>3.689804</v>
       </c>
       <c r="O7">
-        <v>0.5263517071721222</v>
+        <v>0.1963226860838876</v>
       </c>
       <c r="P7">
-        <v>0.5759633413845981</v>
+        <v>0.2307819708801478</v>
       </c>
       <c r="Q7">
-        <v>5.322752178849777</v>
+        <v>1.512739284268444</v>
       </c>
       <c r="R7">
-        <v>47.904769609648</v>
+        <v>13.614653558416</v>
       </c>
       <c r="S7">
-        <v>0.07873718983262494</v>
+        <v>0.03854259707119266</v>
       </c>
       <c r="T7">
-        <v>0.09427955498806756</v>
+        <v>0.05326031808332541</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +891,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +912,40 @@
         <v>3.689804</v>
       </c>
       <c r="I8">
-        <v>0.1495904520869676</v>
+        <v>0.1963226860838876</v>
       </c>
       <c r="J8">
-        <v>0.1636902007711505</v>
+        <v>0.2307819708801478</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.229934666666667</v>
+        <v>0.3987446666666667</v>
       </c>
       <c r="N8">
-        <v>3.689804</v>
+        <v>1.196234</v>
       </c>
       <c r="O8">
-        <v>0.1495904520869676</v>
+        <v>0.06364779052352731</v>
       </c>
       <c r="P8">
-        <v>0.1636902007711505</v>
+        <v>0.07481948638839428</v>
       </c>
       <c r="Q8">
-        <v>1.512739284268444</v>
+        <v>0.4904298886817778</v>
       </c>
       <c r="R8">
-        <v>13.614653558416</v>
+        <v>4.413868998136</v>
       </c>
       <c r="S8">
-        <v>0.02237730335558335</v>
+        <v>0.01249550519888349</v>
       </c>
       <c r="T8">
-        <v>0.02679448182849956</v>
+        <v>0.01726698852895403</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +953,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,164 +974,164 @@
         <v>3.689804</v>
       </c>
       <c r="I9">
-        <v>0.1495904520869676</v>
+        <v>0.1963226860838876</v>
       </c>
       <c r="J9">
-        <v>0.1636902007711505</v>
+        <v>0.2307819708801478</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04034066666666667</v>
+        <v>2.80632</v>
       </c>
       <c r="N9">
-        <v>0.121022</v>
+        <v>5.61264</v>
       </c>
       <c r="O9">
-        <v>0.004906422046392978</v>
+        <v>0.4479459725320928</v>
       </c>
       <c r="P9">
-        <v>0.005368880156703764</v>
+        <v>0.3510474055100902</v>
       </c>
       <c r="Q9">
-        <v>0.04961638440977778</v>
+        <v>3.45159025376</v>
       </c>
       <c r="R9">
-        <v>0.446547459688</v>
+        <v>20.70954152256</v>
       </c>
       <c r="S9">
-        <v>0.0007339538920493902</v>
+        <v>0.08794195654795978</v>
       </c>
       <c r="T9">
-        <v>0.000878833070767085</v>
+        <v>0.08101541211598109</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.229934666666667</v>
+        <v>0.3987446666666667</v>
       </c>
       <c r="H10">
-        <v>3.689804</v>
+        <v>1.196234</v>
       </c>
       <c r="I10">
-        <v>0.1495904520869676</v>
+        <v>0.06364779052352731</v>
       </c>
       <c r="J10">
-        <v>0.1636902007711505</v>
+        <v>0.07481948638839428</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.1246535</v>
+        <v>1.829863333333333</v>
       </c>
       <c r="N10">
-        <v>4.249307</v>
+        <v>5.48959</v>
       </c>
       <c r="O10">
-        <v>0.2584103743124225</v>
+        <v>0.2920835508604924</v>
       </c>
       <c r="P10">
-        <v>0.1885113453094677</v>
+        <v>0.3433511372213675</v>
       </c>
       <c r="Q10">
-        <v>2.613184994304667</v>
+        <v>0.7296482448955556</v>
       </c>
       <c r="R10">
-        <v>15.679109965828</v>
+        <v>6.56683420406</v>
       </c>
       <c r="S10">
-        <v>0.0386557247173578</v>
+        <v>0.01859047266053666</v>
       </c>
       <c r="T10">
-        <v>0.03085745996134644</v>
+        <v>0.0256893557377738</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
+        <v>0.3987446666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.196234</v>
+      </c>
+      <c r="I11">
+        <v>0.06364779052352731</v>
+      </c>
+      <c r="J11">
+        <v>0.07481948638839428</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>1.229934666666667</v>
       </c>
-      <c r="H11">
+      <c r="N11">
         <v>3.689804</v>
       </c>
-      <c r="I11">
-        <v>0.1495904520869676</v>
-      </c>
-      <c r="J11">
-        <v>0.1636902007711505</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.4994136666666666</v>
-      </c>
-      <c r="N11">
-        <v>1.498241</v>
-      </c>
       <c r="O11">
-        <v>0.06074104438209466</v>
+        <v>0.1963226860838876</v>
       </c>
       <c r="P11">
-        <v>0.06646623237808004</v>
+        <v>0.2307819708801478</v>
       </c>
       <c r="Q11">
-        <v>0.6142461816404444</v>
+        <v>0.4904298886817778</v>
       </c>
       <c r="R11">
-        <v>5.528215634764</v>
+        <v>4.413868998136</v>
       </c>
       <c r="S11">
-        <v>0.009086280289352102</v>
+        <v>0.01249550519888349</v>
       </c>
       <c r="T11">
-        <v>0.01087987092246986</v>
+        <v>0.01726698852895403</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1139,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.04034066666666667</v>
+        <v>0.3987446666666667</v>
       </c>
       <c r="H12">
-        <v>0.121022</v>
+        <v>1.196234</v>
       </c>
       <c r="I12">
-        <v>0.004906422046392978</v>
+        <v>0.06364779052352731</v>
       </c>
       <c r="J12">
-        <v>0.005368880156703764</v>
+        <v>0.07481948638839428</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>4.327670666666666</v>
+        <v>0.3987446666666667</v>
       </c>
       <c r="N12">
-        <v>12.983012</v>
+        <v>1.196234</v>
       </c>
       <c r="O12">
-        <v>0.5263517071721222</v>
+        <v>0.06364779052352731</v>
       </c>
       <c r="P12">
-        <v>0.5759633413845981</v>
+        <v>0.07481948638839428</v>
       </c>
       <c r="Q12">
-        <v>0.1745811198071111</v>
+        <v>0.1589973091951111</v>
       </c>
       <c r="R12">
-        <v>1.571230078264</v>
+        <v>1.430975782756</v>
       </c>
       <c r="S12">
-        <v>0.002582503620225881</v>
+        <v>0.004051041238526814</v>
       </c>
       <c r="T12">
-        <v>0.003092278154548565</v>
+        <v>0.005597955543423117</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,247 +1201,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.04034066666666667</v>
+        <v>0.3987446666666667</v>
       </c>
       <c r="H13">
-        <v>0.121022</v>
+        <v>1.196234</v>
       </c>
       <c r="I13">
-        <v>0.004906422046392978</v>
+        <v>0.06364779052352731</v>
       </c>
       <c r="J13">
-        <v>0.005368880156703764</v>
+        <v>0.07481948638839428</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.229934666666667</v>
+        <v>2.80632</v>
       </c>
       <c r="N13">
-        <v>3.689804</v>
+        <v>5.61264</v>
       </c>
       <c r="O13">
-        <v>0.1495904520869676</v>
+        <v>0.4479459725320928</v>
       </c>
       <c r="P13">
-        <v>0.1636902007711505</v>
+        <v>0.3510474055100902</v>
       </c>
       <c r="Q13">
-        <v>0.04961638440977778</v>
+        <v>1.11900513296</v>
       </c>
       <c r="R13">
-        <v>0.446547459688</v>
+        <v>6.71403079776</v>
       </c>
       <c r="S13">
-        <v>0.0007339538920493902</v>
+        <v>0.02851077142558036</v>
       </c>
       <c r="T13">
-        <v>0.000878833070767085</v>
+        <v>0.02626518657824332</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04034066666666667</v>
+        <v>2.80632</v>
       </c>
       <c r="H14">
-        <v>0.121022</v>
+        <v>5.61264</v>
       </c>
       <c r="I14">
-        <v>0.004906422046392978</v>
+        <v>0.4479459725320928</v>
       </c>
       <c r="J14">
-        <v>0.005368880156703764</v>
+        <v>0.3510474055100902</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.04034066666666667</v>
+        <v>1.829863333333333</v>
       </c>
       <c r="N14">
-        <v>0.121022</v>
+        <v>5.48959</v>
       </c>
       <c r="O14">
-        <v>0.004906422046392978</v>
+        <v>0.2920835508604924</v>
       </c>
       <c r="P14">
-        <v>0.005368880156703764</v>
+        <v>0.3433511372213675</v>
       </c>
       <c r="Q14">
-        <v>0.001627369387111111</v>
+        <v>5.135182069599999</v>
       </c>
       <c r="R14">
-        <v>0.014646324484</v>
+        <v>30.8110924176</v>
       </c>
       <c r="S14">
-        <v>2.407297729733105E-05</v>
+        <v>0.1308376502508303</v>
       </c>
       <c r="T14">
-        <v>2.882487413704744E-05</v>
+        <v>0.1205325259005</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04034066666666667</v>
+        <v>2.80632</v>
       </c>
       <c r="H15">
-        <v>0.121022</v>
+        <v>5.61264</v>
       </c>
       <c r="I15">
-        <v>0.004906422046392978</v>
+        <v>0.4479459725320928</v>
       </c>
       <c r="J15">
-        <v>0.005368880156703764</v>
+        <v>0.3510474055100902</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.1246535</v>
+        <v>1.229934666666667</v>
       </c>
       <c r="N15">
-        <v>4.249307</v>
+        <v>3.689804</v>
       </c>
       <c r="O15">
-        <v>0.2584103743124225</v>
+        <v>0.1963226860838876</v>
       </c>
       <c r="P15">
-        <v>0.1885113453094677</v>
+        <v>0.2307819708801478</v>
       </c>
       <c r="Q15">
-        <v>0.08570993862566667</v>
+        <v>3.45159025376</v>
       </c>
       <c r="R15">
-        <v>0.514259631754</v>
+        <v>20.70954152256</v>
       </c>
       <c r="S15">
-        <v>0.001267870357543132</v>
+        <v>0.08794195654795978</v>
       </c>
       <c r="T15">
-        <v>0.001012094821145532</v>
+        <v>0.08101541211598109</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04034066666666667</v>
+        <v>2.80632</v>
       </c>
       <c r="H16">
-        <v>0.121022</v>
+        <v>5.61264</v>
       </c>
       <c r="I16">
-        <v>0.004906422046392978</v>
+        <v>0.4479459725320928</v>
       </c>
       <c r="J16">
-        <v>0.005368880156703764</v>
+        <v>0.3510474055100902</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.4994136666666666</v>
+        <v>0.3987446666666667</v>
       </c>
       <c r="N16">
-        <v>1.498241</v>
+        <v>1.196234</v>
       </c>
       <c r="O16">
-        <v>0.06074104438209466</v>
+        <v>0.06364779052352731</v>
       </c>
       <c r="P16">
-        <v>0.06646623237808004</v>
+        <v>0.07481948638839428</v>
       </c>
       <c r="Q16">
-        <v>0.02014668025577778</v>
+        <v>1.11900513296</v>
       </c>
       <c r="R16">
-        <v>0.181320122302</v>
+        <v>6.71403079776</v>
       </c>
       <c r="S16">
-        <v>0.0002980211992772436</v>
+        <v>0.02851077142558036</v>
       </c>
       <c r="T16">
-        <v>0.0003568492361055351</v>
+        <v>0.02626518657824332</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1452,13 +1449,13 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1467,604 +1464,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.1246535</v>
+        <v>2.80632</v>
       </c>
       <c r="H17">
-        <v>4.249307</v>
+        <v>5.61264</v>
       </c>
       <c r="I17">
-        <v>0.2584103743124225</v>
+        <v>0.4479459725320928</v>
       </c>
       <c r="J17">
-        <v>0.1885113453094677</v>
+        <v>0.3510474055100902</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.327670666666666</v>
+        <v>2.80632</v>
       </c>
       <c r="N17">
-        <v>12.983012</v>
+        <v>5.61264</v>
       </c>
       <c r="O17">
-        <v>0.5263517071721222</v>
+        <v>0.4479459725320928</v>
       </c>
       <c r="P17">
-        <v>0.5759633413845981</v>
+        <v>0.3510474055100902</v>
       </c>
       <c r="Q17">
-        <v>9.194800628780666</v>
+        <v>7.8754319424</v>
       </c>
       <c r="R17">
-        <v>55.16880377268399</v>
+        <v>31.5017277696</v>
       </c>
       <c r="S17">
-        <v>0.1360147416703307</v>
+        <v>0.2006555943077224</v>
       </c>
       <c r="T17">
-        <v>0.1085756243333468</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>2.1246535</v>
-      </c>
-      <c r="H18">
-        <v>4.249307</v>
-      </c>
-      <c r="I18">
-        <v>0.2584103743124225</v>
-      </c>
-      <c r="J18">
-        <v>0.1885113453094677</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1.229934666666667</v>
-      </c>
-      <c r="N18">
-        <v>3.689804</v>
-      </c>
-      <c r="O18">
-        <v>0.1495904520869676</v>
-      </c>
-      <c r="P18">
-        <v>0.1636902007711505</v>
-      </c>
-      <c r="Q18">
-        <v>2.613184994304667</v>
-      </c>
-      <c r="R18">
-        <v>15.679109965828</v>
-      </c>
-      <c r="S18">
-        <v>0.0386557247173578</v>
-      </c>
-      <c r="T18">
-        <v>0.03085745996134644</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2.1246535</v>
-      </c>
-      <c r="H19">
-        <v>4.249307</v>
-      </c>
-      <c r="I19">
-        <v>0.2584103743124225</v>
-      </c>
-      <c r="J19">
-        <v>0.1885113453094677</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.04034066666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.121022</v>
-      </c>
-      <c r="O19">
-        <v>0.004906422046392978</v>
-      </c>
-      <c r="P19">
-        <v>0.005368880156703764</v>
-      </c>
-      <c r="Q19">
-        <v>0.08570993862566667</v>
-      </c>
-      <c r="R19">
-        <v>0.514259631754</v>
-      </c>
-      <c r="S19">
-        <v>0.001267870357543132</v>
-      </c>
-      <c r="T19">
-        <v>0.001012094821145532</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2.1246535</v>
-      </c>
-      <c r="H20">
-        <v>4.249307</v>
-      </c>
-      <c r="I20">
-        <v>0.2584103743124225</v>
-      </c>
-      <c r="J20">
-        <v>0.1885113453094677</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>2.1246535</v>
-      </c>
-      <c r="N20">
-        <v>4.249307</v>
-      </c>
-      <c r="O20">
-        <v>0.2584103743124225</v>
-      </c>
-      <c r="P20">
-        <v>0.1885113453094677</v>
-      </c>
-      <c r="Q20">
-        <v>4.51415249506225</v>
-      </c>
-      <c r="R20">
-        <v>18.056609980249</v>
-      </c>
-      <c r="S20">
-        <v>0.06677592155228632</v>
-      </c>
-      <c r="T20">
-        <v>0.03553652731038537</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.1246535</v>
-      </c>
-      <c r="H21">
-        <v>4.249307</v>
-      </c>
-      <c r="I21">
-        <v>0.2584103743124225</v>
-      </c>
-      <c r="J21">
-        <v>0.1885113453094677</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.4994136666666666</v>
-      </c>
-      <c r="N21">
-        <v>1.498241</v>
-      </c>
-      <c r="O21">
-        <v>0.06074104438209466</v>
-      </c>
-      <c r="P21">
-        <v>0.06646623237808004</v>
-      </c>
-      <c r="Q21">
-        <v>1.061080994831167</v>
-      </c>
-      <c r="R21">
-        <v>6.366485968987</v>
-      </c>
-      <c r="S21">
-        <v>0.01569611601490455</v>
-      </c>
-      <c r="T21">
-        <v>0.01252963888324357</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.4994136666666666</v>
-      </c>
-      <c r="H22">
-        <v>1.498241</v>
-      </c>
-      <c r="I22">
-        <v>0.06074104438209466</v>
-      </c>
-      <c r="J22">
-        <v>0.06646623237808004</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>4.327670666666666</v>
-      </c>
-      <c r="N22">
-        <v>12.983012</v>
-      </c>
-      <c r="O22">
-        <v>0.5263517071721222</v>
-      </c>
-      <c r="P22">
-        <v>0.5759633413845981</v>
-      </c>
-      <c r="Q22">
-        <v>2.161297875765777</v>
-      </c>
-      <c r="R22">
-        <v>19.451680881892</v>
-      </c>
-      <c r="S22">
-        <v>0.03197115240593316</v>
-      </c>
-      <c r="T22">
-        <v>0.03828211328972415</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.4994136666666666</v>
-      </c>
-      <c r="H23">
-        <v>1.498241</v>
-      </c>
-      <c r="I23">
-        <v>0.06074104438209466</v>
-      </c>
-      <c r="J23">
-        <v>0.06646623237808004</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.229934666666667</v>
-      </c>
-      <c r="N23">
-        <v>3.689804</v>
-      </c>
-      <c r="O23">
-        <v>0.1495904520869676</v>
-      </c>
-      <c r="P23">
-        <v>0.1636902007711505</v>
-      </c>
-      <c r="Q23">
-        <v>0.6142461816404444</v>
-      </c>
-      <c r="R23">
-        <v>5.528215634764</v>
-      </c>
-      <c r="S23">
-        <v>0.009086280289352102</v>
-      </c>
-      <c r="T23">
-        <v>0.01087987092246986</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.4994136666666666</v>
-      </c>
-      <c r="H24">
-        <v>1.498241</v>
-      </c>
-      <c r="I24">
-        <v>0.06074104438209466</v>
-      </c>
-      <c r="J24">
-        <v>0.06646623237808004</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.04034066666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.121022</v>
-      </c>
-      <c r="O24">
-        <v>0.004906422046392978</v>
-      </c>
-      <c r="P24">
-        <v>0.005368880156703764</v>
-      </c>
-      <c r="Q24">
-        <v>0.02014668025577778</v>
-      </c>
-      <c r="R24">
-        <v>0.181320122302</v>
-      </c>
-      <c r="S24">
-        <v>0.0002980211992772436</v>
-      </c>
-      <c r="T24">
-        <v>0.0003568492361055351</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.4994136666666666</v>
-      </c>
-      <c r="H25">
-        <v>1.498241</v>
-      </c>
-      <c r="I25">
-        <v>0.06074104438209466</v>
-      </c>
-      <c r="J25">
-        <v>0.06646623237808004</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.1246535</v>
-      </c>
-      <c r="N25">
-        <v>4.249307</v>
-      </c>
-      <c r="O25">
-        <v>0.2584103743124225</v>
-      </c>
-      <c r="P25">
-        <v>0.1885113453094677</v>
-      </c>
-      <c r="Q25">
-        <v>1.061080994831167</v>
-      </c>
-      <c r="R25">
-        <v>6.366485968987</v>
-      </c>
-      <c r="S25">
-        <v>0.01569611601490455</v>
-      </c>
-      <c r="T25">
-        <v>0.01252963888324357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.4994136666666666</v>
-      </c>
-      <c r="H26">
-        <v>1.498241</v>
-      </c>
-      <c r="I26">
-        <v>0.06074104438209466</v>
-      </c>
-      <c r="J26">
-        <v>0.06646623237808004</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.4994136666666666</v>
-      </c>
-      <c r="N26">
-        <v>1.498241</v>
-      </c>
-      <c r="O26">
-        <v>0.06074104438209466</v>
-      </c>
-      <c r="P26">
-        <v>0.06646623237808004</v>
-      </c>
-      <c r="Q26">
-        <v>0.2494140104534444</v>
-      </c>
-      <c r="R26">
-        <v>2.244726094081</v>
-      </c>
-      <c r="S26">
-        <v>0.003689474472627593</v>
-      </c>
-      <c r="T26">
-        <v>0.004417760046536936</v>
+        <v>0.1232342809153657</v>
       </c>
     </row>
   </sheetData>
